--- a/generateurCaracteresLCD.xlsx
+++ b/generateurCaracteresLCD.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpazdziej\Documents\Google Drive\Personnel-Privé-Laurent Pazdziej\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpazdziej\Documents\Google Drive\Personnel-Privé-Laurent Pazdziej\Arduino\santaClaus27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Caracteres speciaux" sheetId="1" r:id="rId1"/>
     <sheet name="Generateur de parcours" sheetId="2" r:id="rId2"/>
+    <sheet name="Generateur de parcours (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>{</t>
   </si>
@@ -617,15 +618,15 @@
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="3.33203125" style="1"/>
-    <col min="30" max="30" width="3.33203125" style="13"/>
-    <col min="31" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="29" width="3.28515625" style="1"/>
+    <col min="30" max="30" width="3.28515625" style="13"/>
+    <col min="31" max="16384" width="3.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="12">
         <v>0</v>
       </c>
@@ -684,7 +685,7 @@
         <v>B01001,</v>
       </c>
     </row>
-    <row r="4" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M4" s="12">
         <v>0</v>
       </c>
@@ -743,7 +744,7 @@
         <v>B11010,</v>
       </c>
     </row>
-    <row r="5" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M5" s="12">
         <v>0</v>
       </c>
@@ -802,7 +803,7 @@
         <v>B00100,</v>
       </c>
     </row>
-    <row r="6" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="12">
         <v>0</v>
       </c>
@@ -861,7 +862,7 @@
         <v>B11111,</v>
       </c>
     </row>
-    <row r="7" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M7" s="12">
         <v>1</v>
       </c>
@@ -920,7 +921,7 @@
         <v>B10101,</v>
       </c>
     </row>
-    <row r="8" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M8" s="12">
         <v>0</v>
       </c>
@@ -979,7 +980,7 @@
         <v>B11111,</v>
       </c>
     </row>
-    <row r="9" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" s="12">
         <v>0</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>B10101,</v>
       </c>
     </row>
-    <row r="10" spans="13:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="13:40" x14ac:dyDescent="0.25">
       <c r="M10" s="12">
         <v>0</v>
       </c>
@@ -1097,8 +1098,8 @@
         <v>B11111</v>
       </c>
     </row>
-    <row r="11" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M12" s="12">
         <v>0</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>B00111,</v>
       </c>
     </row>
-    <row r="13" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M13" s="12">
         <v>0</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>B01110,</v>
       </c>
     </row>
-    <row r="14" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M14" s="12">
         <v>0</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>B01100,</v>
       </c>
     </row>
-    <row r="15" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="12">
         <v>1</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>B11100,</v>
       </c>
     </row>
-    <row r="16" spans="13:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="13:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="12">
         <v>0</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>B01100,</v>
       </c>
     </row>
-    <row r="17" spans="13:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M17" s="12">
         <v>0</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>B01110,</v>
       </c>
     </row>
-    <row r="18" spans="13:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" s="12">
         <v>0</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>B00111,</v>
       </c>
     </row>
-    <row r="19" spans="13:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:30" x14ac:dyDescent="0.25">
       <c r="M19" s="12">
         <v>0</v>
       </c>
@@ -1469,18 +1470,18 @@
   <dimension ref="C4:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="C8" sqref="C8:AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="38" width="3.88671875" style="2"/>
-    <col min="39" max="39" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.88671875" style="2"/>
+    <col min="1" max="38" width="3.85546875" style="2"/>
+    <col min="39" max="39" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="9">
         <v>0</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1602,6 +1603,558 @@
         <v>1</v>
       </c>
       <c r="V6" s="4"/>
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(D6="","0,",D6&amp;",")</f>
+        <v>0,</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" ref="E8:AI9" si="0">IF(E6="","0,",E6&amp;",")</f>
+        <v>0,</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="U8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="V8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="W8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2,</v>
+      </c>
+      <c r="X8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="Y8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="Z8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AA8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AB8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AC8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AD8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AE8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AF8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AG8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AH8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AI8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>999</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IF(D7="","0,",D7&amp;",")</f>
+        <v>1,</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="U9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="V9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="W9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="X9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="Y9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="Z9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AA9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AB9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AC9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AD9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AE9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AF9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AG9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AH9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="AI9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>999</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="R15" s="2">
+        <v>63</v>
+      </c>
+      <c r="W15" s="2">
+        <f>2*32</f>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AK15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="38" width="3.85546875" style="2"/>
+    <col min="39" max="39" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10">
+        <v>7</v>
+      </c>
+      <c r="L5" s="10">
+        <v>8</v>
+      </c>
+      <c r="M5" s="10">
+        <v>9</v>
+      </c>
+      <c r="N5" s="10">
+        <v>10</v>
+      </c>
+      <c r="O5" s="10">
+        <v>11</v>
+      </c>
+      <c r="P5" s="10">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>13</v>
+      </c>
+      <c r="R5" s="10">
+        <v>14</v>
+      </c>
+      <c r="S5" s="11">
+        <v>15</v>
+      </c>
+      <c r="T5" s="9">
+        <v>16</v>
+      </c>
+      <c r="U5" s="10">
+        <v>17</v>
+      </c>
+      <c r="V5" s="10">
+        <v>18</v>
+      </c>
+      <c r="W5" s="10">
+        <v>19</v>
+      </c>
+      <c r="X5" s="10">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>26</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>27</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4">
@@ -1620,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="6">
         <v>1</v>
       </c>
@@ -1668,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1975,17 +2528,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
       <c r="R15" s="2">
         <v>63</v>
       </c>
